--- a/Logs/3/outKNNHSV.xlsx
+++ b/Logs/3/outKNNHSV.xlsx
@@ -97,9 +97,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -113,6 +110,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,430 +433,796 @@
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>360</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.71</v>
       </c>
-      <c r="E2" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="E2" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="H2" s="4">
         <v>0.77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.7</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.87</v>
       </c>
-      <c r="G3" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="H3" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3">
+      <c r="J3" s="6">
+        <v>360</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="C4" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.87</v>
       </c>
-      <c r="G4" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3">
+      <c r="J4" s="6"/>
+      <c r="K4" s="2">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2">
         <v>20</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="C5" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="J5" s="6"/>
+      <c r="K5" s="2">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>180</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="D6" s="4">
         <v>0.71</v>
       </c>
-      <c r="E6" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.8</v>
       </c>
-      <c r="G6" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4">
+      <c r="J6" s="6"/>
+      <c r="K6" s="2">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.7</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.87</v>
       </c>
-      <c r="G7" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3">
+      <c r="J7" s="6">
+        <v>180</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2">
         <v>15</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="C8" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.87</v>
       </c>
-      <c r="G8" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H8" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3">
+      <c r="J8" s="6"/>
+      <c r="K8" s="2">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2">
         <v>20</v>
       </c>
-      <c r="C9" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="C9" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H9" s="4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="J9" s="6"/>
+      <c r="K9" s="2">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>90</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
-        <v>0.97</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="D10" s="5">
         <v>0.73</v>
       </c>
-      <c r="E10" s="6">
-        <v>0.96</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F10" s="5">
         <v>0.8</v>
       </c>
-      <c r="G10" s="6">
-        <v>0.97</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="H10" s="5">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3">
+      <c r="J10" s="6"/>
+      <c r="K10" s="2">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.7</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.87</v>
       </c>
-      <c r="G11" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="H11" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3">
+      <c r="J11" s="6">
+        <v>90</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2">
         <v>15</v>
       </c>
-      <c r="C12" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D12" s="4">
         <v>0.7</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.87</v>
       </c>
-      <c r="G12" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="H12" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3">
+      <c r="J12" s="6"/>
+      <c r="K12" s="2">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="C13" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H13" s="4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="J13" s="6"/>
+      <c r="K13" s="2">
+        <v>15</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>45</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="D14" s="4">
         <v>0.69</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.8</v>
       </c>
-      <c r="G14" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H14" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="J14" s="6"/>
+      <c r="K14" s="2">
+        <v>20</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D15" s="4">
         <v>0.69</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="E15" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3">
+      <c r="J15" s="6">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="C16" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H16" s="4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3">
+      <c r="J16" s="6"/>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2">
         <v>20</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="C17" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H17" s="4">
         <v>0.75</v>
       </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="2">
+        <v>15</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J18" s="6"/>
+      <c r="K18" s="2">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="J15:J18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
